--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="24300" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -3768,14 +3768,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -4023,10 +4023,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4039,17 +4040,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4065,29 +4095,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4116,7 +4123,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4130,30 +4153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4263,7 +4263,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,13 +4323,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4293,7 +4377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,31 +4413,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4341,109 +4443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4533,22 +4533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4557,7 +4542,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4592,6 +4577,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4606,159 +4617,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4801,9 +4801,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5246,36 +5246,36 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5284,23 +5284,23 @@
     <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5309,19 +5309,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5330,21 +5330,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5353,13 +5353,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5395,7 +5395,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5471,7 +5471,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5480,7 +5480,7 @@
     <xf numFmtId="49" fontId="29" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5489,28 +5489,28 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5519,10 +5519,10 @@
     <xf numFmtId="10" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5694,33 +5694,33 @@
     <xf numFmtId="2" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="34" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="34" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5729,7 +5729,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7402,13 +7402,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>469265</xdr:colOff>
+      <xdr:colOff>468630</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
@@ -7418,7 +7418,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8543925" y="717550"/>
+        <a:off x="8543290" y="717550"/>
         <a:ext cx="5158740" cy="5596255"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7756,8 +7756,8 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -10236,7 +10236,7 @@
   <sheetPr/>
   <dimension ref="A1:AP208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -15985,7 +15985,7 @@
         <v>376</v>
       </c>
       <c r="AA74" s="279">
-        <f t="shared" ref="AA74:AA97" si="33">(J74-O74)/J74</f>
+        <f t="shared" ref="AA74:AA98" si="33">(J74-O74)/J74</f>
         <v>0.146166134185303</v>
       </c>
       <c r="AB74" s="275">
@@ -17615,11 +17615,11 @@
         <v>0.353919239904988</v>
       </c>
       <c r="AB91" s="364">
-        <f t="shared" ref="AB91:AB97" si="43">(P91-Q91)/P91</f>
+        <f t="shared" ref="AB91:AB98" si="43">(P91-Q91)/P91</f>
         <v>0.136129506990434</v>
       </c>
       <c r="AC91" s="364">
-        <f t="shared" ref="AC91:AC97" si="44">(R91-S91)/R91</f>
+        <f t="shared" ref="AC91:AC98" si="44">(R91-S91)/R91</f>
         <v>0.0941352259992529</v>
       </c>
       <c r="AD91" s="272">
@@ -18414,15 +18414,15 @@
         <v>367</v>
       </c>
       <c r="AA98" s="356">
-        <f>(J98-O98)/J98</f>
+        <f t="shared" si="33"/>
         <v>0.179432339705031</v>
       </c>
       <c r="AB98" s="356">
-        <f>(P98-Q98)/P98</f>
+        <f t="shared" si="43"/>
         <v>0.0778748895217519</v>
       </c>
       <c r="AC98" s="356">
-        <f>(R98-S98)/R98</f>
+        <f t="shared" si="44"/>
         <v>0.0794979079497908</v>
       </c>
       <c r="AD98" s="356"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -3768,14 +3768,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -4023,16 +4023,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4040,22 +4039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4069,15 +4053,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4091,10 +4089,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4107,16 +4113,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4131,39 +4145,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4263,7 +4263,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,91 +4347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4377,7 +4371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4389,19 +4425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4413,37 +4437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4533,15 +4533,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4562,6 +4553,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4573,17 +4588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4603,162 +4607,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4803,7 +4803,7 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5291,16 +5291,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5309,19 +5309,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5330,21 +5330,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5353,13 +5353,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5395,7 +5395,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="21" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5471,7 +5471,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5480,7 +5480,7 @@
     <xf numFmtId="49" fontId="29" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5489,28 +5489,28 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5519,10 +5519,10 @@
     <xf numFmtId="10" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5694,33 +5694,33 @@
     <xf numFmtId="2" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="34" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="34" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5729,7 +5729,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7756,7 +7756,7 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -10236,12 +10236,12 @@
   <sheetPr/>
   <dimension ref="A1:AP208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U88" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
+      <selection pane="bottomRight" activeCell="AE95" sqref="AE95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
@@ -18005,22 +18005,24 @@
       <c r="B95" s="75" t="s">
         <v>468</v>
       </c>
-      <c r="C95" s="75"/>
+      <c r="C95" s="75">
+        <v>3.3</v>
+      </c>
       <c r="D95" s="339">
-        <v>387.73</v>
+        <v>389.06</v>
       </c>
       <c r="E95" s="339">
-        <v>398.52</v>
+        <v>401.67</v>
       </c>
       <c r="F95" s="339">
-        <v>432.45</v>
+        <v>438.82</v>
       </c>
       <c r="G95" s="339"/>
       <c r="H95" s="339">
-        <v>457.7</v>
+        <v>475.85</v>
       </c>
       <c r="I95" s="339">
-        <v>221.1</v>
+        <v>239.25</v>
       </c>
       <c r="J95" s="339">
         <v>491.88</v>
@@ -18030,11 +18032,11 @@
       </c>
       <c r="L95" s="354">
         <f t="shared" si="36"/>
-        <v>1.07010402532791</v>
+        <v>0.988923719958203</v>
       </c>
       <c r="M95" s="354">
         <f t="shared" si="37"/>
-        <v>0.0694884931284053</v>
+        <v>0.0325892494104253</v>
       </c>
       <c r="N95" s="354">
         <f t="shared" si="42"/>
@@ -18061,8 +18063,12 @@
       <c r="U95" s="339">
         <v>449.03</v>
       </c>
-      <c r="V95" s="339"/>
-      <c r="W95" s="339"/>
+      <c r="V95" s="339">
+        <v>472</v>
+      </c>
+      <c r="W95" s="339">
+        <v>451.07</v>
+      </c>
       <c r="X95" s="339"/>
       <c r="Y95" s="339"/>
       <c r="Z95" s="339" t="s">
@@ -18084,7 +18090,10 @@
         <f t="shared" si="45"/>
         <v>0.0374078202709656</v>
       </c>
-      <c r="AE95" s="354"/>
+      <c r="AE95" s="354">
+        <f>(V95-W95)/V95</f>
+        <v>0.0443432203389831</v>
+      </c>
       <c r="AF95" s="354"/>
       <c r="AG95" s="339" t="s">
         <v>435</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/增长幅度-主板-202112.xlsx
@@ -10237,16 +10237,16 @@
   <dimension ref="A1:AP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE95" sqref="AE95"/>
+      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="1" width="8.71323529411765" style="238" customWidth="1"/>
+    <col min="1" max="1" width="11.6397058823529" style="238" customWidth="1"/>
     <col min="2" max="2" width="8.71323529411765" customWidth="1"/>
     <col min="3" max="3" width="11.2720588235294" customWidth="1"/>
     <col min="4" max="4" width="8.27941176470588" customWidth="1"/>
